--- a/data-raw/JAJ_dict.xlsx
+++ b/data-raw/JAJ_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\JAJ\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A6F8197-DD06-4E25-8528-29E981B555F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D53DB-8744-49EE-A998-FD62D2BAD44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAJ_dict" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="218">
   <si>
     <t>key</t>
   </si>
@@ -542,12 +542,144 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Benvenuto al test di Memoria di Jack e Jill</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t>Hai completato il test di Memoria di Jack e Jill.</t>
+  </si>
+  <si>
+    <t>Domanda {{num_question}} di {{test_length}}</t>
+  </si>
+  <si>
+    <t>Per favore, inserisci solo numeri senza spazi</t>
+  </si>
+  <si>
+    <t>Esempio {{num_example}}</t>
+  </si>
+  <si>
+    <t>Sei riuscito a ricordare correttamente il {{prop_correct_hand}}% delle mani e il {{prop_correct_position}}% delle sequenze.</t>
+  </si>
+  <si>
+    <t>Avevi ragione sulla mano in cui Jack aveva la palla.</t>
+  </si>
+  <si>
+    <t>Non avevi ragione sulla mano in cui Jack aveva la palla.</t>
+  </si>
+  <si>
+    <t>Ora iniziamo il test principale in cui non riceverai alcun commento. Divertiti!</t>
+  </si>
+  <si>
+    <t>Per favore, inserisci il tuo codice partecipante.</t>
+  </si>
+  <si>
+    <t>es. 10492817</t>
+  </si>
+  <si>
+    <t>Per favore, inserisci un codice valido</t>
+  </si>
+  <si>
+    <t>Avevi ragione sull'ordine che ha seguito la pallina.</t>
+  </si>
+  <si>
+    <t>Non avevi ragione sull'ordine che ha seguito la pallina.</t>
+  </si>
+  <si>
+    <t>Stessa</t>
+  </si>
+  <si>
+    <t>Diversa</t>
+  </si>
+  <si>
+    <t>Ci sono Jill a sinistra e Jack a destra dello schermo. Ognuno di loro ha una pallina blu nella mano.</t>
+  </si>
+  <si>
+    <t>Inserisci il tuo indirizzo e-mail qui sotto per il tuo compenso **Slicethepie**.</t>
+  </si>
+  <si>
+    <t>Il tuo indirizzo e-mail</t>
+  </si>
+  <si>
+    <t>Fatto</t>
+  </si>
+  <si>
+    <t>Grazie per la tua partecipazione!</t>
+  </si>
+  <si>
+    <t>Ora puoi chiudere la finestra del tuo browser.</t>
+  </si>
+  <si>
+    <t>I tuoi risultati sono stati salvati.</t>
+  </si>
+  <si>
+    <t>Adesso clicca sul cerchietto che era coperto dalla pallina.</t>
+  </si>
+  <si>
+    <t>**Congratulazioni**!\\ Ecco come si supera un round: 1) dire se Jack e Jill hanno la pallina nella stessa mano 2) ricordare dove va la pallina ogni volta che Jack gira</t>
+  </si>
+  <si>
+    <t>Adesso prova da solo/a senza aiuto</t>
+  </si>
+  <si>
+    <t>Test di Memoria di Jack e Jill</t>
+  </si>
+  <si>
+    <t>Hai riposto correttamente a {num_correct}} su {{num_question}} sequenze di posizione.</t>
+  </si>
+  <si>
+    <t>Il tuo punteggio</t>
+  </si>
+  <si>
+    <t>Punteggio</t>
+  </si>
+  <si>
+    <t>Jack gira ogni volta che risponderai a questa domanda: "Jack tiene la pallina nella stessa mano di Jill"? Prima di rispondere, memorizza dov'è la pallina.</t>
+  </si>
+  <si>
+    <t>Clicca sui cerchietti arancioni dove hai visto la pallina spostarsi nello stesso ordine in cui Jack si è girato.</t>
+  </si>
+  <si>
+    <t>Ciò che hai inserito non è valido. Per favore, riprova.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jill avrà la pallina sempre nella mano destra **dalla tua visuale**, ma Jack può tenere la pallina nella mano destra o in quella sinistra\\Qui ce l'ha nella sinistra, diversamente da Jill. Fai clic su "diverso" in basso e ricorda anche il cerchietto coperto dalla pallina.</t>
+  </si>
+  <si>
+    <t>Jack tiene la palla nella stessa mano di Jill? Ricorda dov'è la pallina quando Jack si gira.</t>
+  </si>
+  <si>
+    <t>Facciamo un po’ di pratica!</t>
+  </si>
+  <si>
+    <t>Fai clic sui cerchietti arancioni in cui hai visto la palla muoversi nello stesso ordine in cui si è girato Jack.</t>
+  </si>
+  <si>
+    <t>Dietro Jack ci sono 6 cerchietti arancioni. Jill non si muove, ma Jack può girarsi, come puoi vedere qui. Quando Jack gira, la pallina nella sua mano copre uno dei cerchietti dietro di lui. **In ogni round, ricorda quale cerchietto viene coperto dalla pallina**</t>
+  </si>
+  <si>
+    <t>Jack può anche ruotare più di una volta nello stesso round. Ora Jack ha la pallina nella stessa mano di Jill. Clicca “Stessa”. Tieni a mente il cerchietto coperto dalla pallina.</t>
+  </si>
+  <si>
+    <t>E adesso per il secondo round, Jack tiene la pallina in una mano diversa. Clicca “Diversa”. Tieni a mente il cerchietto coperto dalla pallina.</t>
+  </si>
+  <si>
+    <t>Adesso clicca sui due posti in cui è andata la pallina quando Jack si è girato, nello stesso ordine. Poichè  la pallina è andata prima qui, allora clicca qui.</t>
+  </si>
+  <si>
+    <t>E poichè dopo è andata qui, allora clicca qui.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1025,8 +1157,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1381,14 +1516,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1401,8 +1541,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1415,8 +1558,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1429,8 +1575,11 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1443,8 +1592,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1457,8 +1609,11 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1471,8 +1626,11 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1485,8 +1643,11 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1499,8 +1660,11 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1513,8 +1677,11 @@
       <c r="D9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1527,8 +1694,11 @@
       <c r="D10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1541,8 +1711,11 @@
       <c r="D11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1555,8 +1728,11 @@
       <c r="D12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1569,8 +1745,11 @@
       <c r="D13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1583,8 +1762,11 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1597,8 +1779,11 @@
       <c r="D15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1611,8 +1796,11 @@
       <c r="D16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1625,8 +1813,11 @@
       <c r="D17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1639,8 +1830,11 @@
       <c r="D18" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1653,8 +1847,11 @@
       <c r="D19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1667,8 +1864,11 @@
       <c r="D20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1681,8 +1881,11 @@
       <c r="D21" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1695,8 +1898,11 @@
       <c r="D22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1709,8 +1915,11 @@
       <c r="D23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1723,8 +1932,11 @@
       <c r="D24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1737,8 +1949,11 @@
       <c r="D25" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1751,8 +1966,11 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -1765,8 +1983,11 @@
       <c r="D27" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1779,8 +2000,11 @@
       <c r="D28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -1793,8 +2017,11 @@
       <c r="D29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -1807,8 +2034,11 @@
       <c r="D30" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -1821,8 +2051,11 @@
       <c r="D31" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -1835,8 +2068,11 @@
       <c r="D32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -1849,8 +2085,11 @@
       <c r="D33" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -1863,8 +2102,11 @@
       <c r="D34" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -1877,8 +2119,11 @@
       <c r="D35" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -1891,8 +2136,11 @@
       <c r="D36" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -1905,8 +2153,11 @@
       <c r="D37" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -1919,8 +2170,11 @@
       <c r="D38" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -1933,8 +2187,11 @@
       <c r="D39" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -1947,8 +2204,11 @@
       <c r="D40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -1961,8 +2221,11 @@
       <c r="D41" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -1975,8 +2238,11 @@
       <c r="D42" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -1989,8 +2255,11 @@
       <c r="D43" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -2003,8 +2272,11 @@
       <c r="D44" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2016,6 +2288,9 @@
       </c>
       <c r="D45" t="s">
         <v>173</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/JAJ_dict.xlsx
+++ b/data-raw/JAJ_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\JAJ\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38D53DB-8744-49EE-A998-FD62D2BAD44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4CF05-25B0-42BB-8692-736FAF45B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="289">
   <si>
     <t>key</t>
   </si>
@@ -674,6 +674,219 @@
   </si>
   <si>
     <t>E poichè dopo è andata qui, allora clicca qui.</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Bienvenido/a al Test de Memoria de Trabajo de Jack y Jill</t>
+  </si>
+  <si>
+    <t>Jack gira cada vez que contestarás a esta pregunta: “¿Jack tiene la bolita en la misma mano que Jill?”Antes de responder, memoriza dónde está la bolita.</t>
+  </si>
+  <si>
+    <t>Continuar</t>
+  </si>
+  <si>
+    <t>Haz clic en los circulitos naranjas donde viste la bolita desplazarse en el mismo orden en el que Jack giró.</t>
+  </si>
+  <si>
+    <t>Has terminado el Test de Memoria de Jack y Jill.</t>
+  </si>
+  <si>
+    <t>Pregunta {{num_question}} de {{test_length}}</t>
+  </si>
+  <si>
+    <t>Por favor inserta solo dígitos sin espacios</t>
+  </si>
+  <si>
+    <t>Ejemplo {{num_example}}</t>
+  </si>
+  <si>
+    <t>Tu acceso no es válido. Por favor, inténtalo de nuevo.</t>
+  </si>
+  <si>
+    <t>Te recordaste el {{prop_correct_hand}}% de manos y el {{prop_correct_position}}% de secuencias correctamente.</t>
+  </si>
+  <si>
+    <t>Tenías razón sobre en qué mano Jack tenía la bolita.</t>
+  </si>
+  <si>
+    <t>No tenías razón sobre en qué mano Jack tenía la bolita.</t>
+  </si>
+  <si>
+    <t>Ahora vamos a empezar la prueba principal en la cual no recibirás ninguna retroalimentación. ¡Disfruta!</t>
+  </si>
+  <si>
+    <t>Por favor, inserta tu código de participante</t>
+  </si>
+  <si>
+    <t>ej. 10492817</t>
+  </si>
+  <si>
+    <t>Por favor inserta un código valido.</t>
+  </si>
+  <si>
+    <t>Tenías razón sobre el orden en el cual se desplazó la bolita.</t>
+  </si>
+  <si>
+    <t>No tenías razón sobre el orden en el cual se desplazó la bolita.</t>
+  </si>
+  <si>
+    <t>Misma</t>
+  </si>
+  <si>
+    <t>Distinta</t>
+  </si>
+  <si>
+    <t>Está Jill a la izquierda y Jack a la derecha de la pantalla. Cada uno de ellos tiene una bolita azul en la mano.</t>
+  </si>
+  <si>
+    <t>¿Jack tiene la bolita en la misma mano que Jill? Recuerda dónde está la bolita cuando Jack gira.</t>
+  </si>
+  <si>
+    <t>¡Hagamos un poco de práctica!</t>
+  </si>
+  <si>
+    <t>Haz clic en el circulito naranja donde viste la bolita desplazarse en el mismo orden en el que Jack giró.</t>
+  </si>
+  <si>
+    <t>Ingresa tu dirección de correo electrónico a continuación para tu compensación de **Slicethepie**.</t>
+  </si>
+  <si>
+    <t>Tu correo electrónico</t>
+  </si>
+  <si>
+    <t>Hecho</t>
+  </si>
+  <si>
+    <t>¡Gracias por participar!</t>
+  </si>
+  <si>
+    <t>Ahora puedes cerrar la ventana de tu navegador.</t>
+  </si>
+  <si>
+    <t>Tus resultados han sido guardados.</t>
+  </si>
+  <si>
+    <t>Ahora haz clic en el circulito que estaba cubierto por la bolita.</t>
+  </si>
+  <si>
+    <t>**Enhorabuena**!\\Para pasar cada ronda tendrás que: 1) saber si Jack y Jill tienen la bolita en la misma mano, 2) recordar dónde va la bolita cada vez que Jack gira.</t>
+  </si>
+  <si>
+    <t>Detrás de Jack hay 6 circulitos naranjas. Jill no se mueve, pero Jack puede girar, como puedes ver aquí. Cuando Jack gira, la bolita en su mano cubre uno de los circulitos detrás de él. **En cada ronda, recuerda qué circulo se cubre con la bola.**</t>
+  </si>
+  <si>
+    <t>Jack también puede girar más de una vez en la misma ronda. Ahora Jack tiene la bolita en la misma mano que Jill. Haz clic en “Misma”. Recuerda el circulito cubierto por la bolita.</t>
+  </si>
+  <si>
+    <t>Y ahora para la segunda ronda, Jack tiene la bolita en una mano distinta. Haz clic en “Distinta”. Recuerda el circulito cubierto por la bolita.</t>
+  </si>
+  <si>
+    <t>Ahora haz clic en los dos sitios a los que se desplazó la bolita cuando Jack giró, en el mismo orden. Como la bolita se desplazó aquí primero, entonces haz clic aquí.</t>
+  </si>
+  <si>
+    <t>Y como luego se desplazó aquí, entonces haz clic aquí.</t>
+  </si>
+  <si>
+    <t>Ahora intenta tú solo/a sin ayuda.</t>
+  </si>
+  <si>
+    <t>Test de Memoria de Jack y Jill</t>
+  </si>
+  <si>
+    <t>Contestaste {{num_correct}} de {{num_question}} secuencias de posición correctamente.</t>
+  </si>
+  <si>
+    <t>Tu puntuación</t>
+  </si>
+  <si>
+    <t>Puntuación</t>
+  </si>
+  <si>
+    <t>DE_F</t>
+  </si>
+  <si>
+    <t>Johann dreht sich jedesmal, nachdem Sie die folgende Frage beantwortet haben: „Hatte Johann den Ball in der gleichen Hand wie Johanna?" Bevor sie antworten, merke Sie sich bitte, auf welcher Position der Ball war.</t>
+  </si>
+  <si>
+    <t>Bitte klicken Sie auf die Positionen der Bälle in der Reihenfolge, die Sie gesehen hast.</t>
+  </si>
+  <si>
+    <t>Sie haben den Johann &amp; Johanna Gedächtnistest beendet.</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie nur Ziffern ohne Leerzeichen ein.</t>
+  </si>
+  <si>
+    <t>Ihre Eingabe war nicht korrekt. Bitte versuchen Sie noch mal.</t>
+  </si>
+  <si>
+    <t>Sie hatten {{prop_correct_hand}}% der Ballhände und {{prop_correct_position}}% der Ballpositionen richtig.</t>
+  </si>
+  <si>
+    <t>Jetzt geht es weiter zum Haupttest, in dem Sie keine Rückmeldung mehr bekommen. Viel Spaß!</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie Ihre ID ein</t>
+  </si>
+  <si>
+    <t>Johanna hält den Ball immer rechts (**von Ihnen  aus gesehen**), aber Johann kann ihn links oder rechts halten. Hier hat er ihn links, also nicht in der gleichen Hand wie Johanna.  Klicken Sie auf „Verschieden" und merken Sie sich die Ballposition.</t>
+  </si>
+  <si>
+    <t>Hält Johann den Ball in der gleichen Hand wie Johanna? Merke Sie sich bitte, wo der Ball ist, wenn Johann sich dreht.</t>
+  </si>
+  <si>
+    <t>Sie können das nun ausprobieren.</t>
+  </si>
+  <si>
+    <t>Klicken Sie die Positionen von Johanns Ball in der richtigen Reihenfolge.</t>
+  </si>
+  <si>
+    <t>Bitte geben Sie ihre E-Mail-Adresse für ihre Slicethepie Kompensation ein.</t>
+  </si>
+  <si>
+    <t>Ihre Email-Adresse</t>
+  </si>
+  <si>
+    <t>Danke für Ihre Teilnahme!</t>
+  </si>
+  <si>
+    <t>Sie können den Browsertab jetzt schließen.</t>
+  </si>
+  <si>
+    <t>Ihre Ergebnisse wurden gespeichert.</t>
+  </si>
+  <si>
+    <t>Jetzt klicken Sie bitte auf die Position, wo der Ball war.</t>
+  </si>
+  <si>
+    <t>Hinter Johann sind 6 verschiedene orangene Punkte. Johanna kann sich nicht bewegen, aber Johann kann sich drehen. Wenn Johann sich dreht, wird sein Ball einen der Punkte hinter ihm verdecken. **Merke Sie sich bitte bei jeder Drehung, auf welchem Punkt der Ball war.**</t>
+  </si>
+  <si>
+    <t>Das Ganze geht auch mit mehr als einer Drehung. Hier hat Johann den Ball in der gleichen Hand. Klicken Sie unten auf „Gleich" und merken Sie sich, wo der Ball war.</t>
+  </si>
+  <si>
+    <t>Bei der nächsten Drehung hat Johann den Ball in der anderen Hand. Klicken Sie also unten auf „Verschieden". Merken Sie sich immer, wo der Ball war.</t>
+  </si>
+  <si>
+    <t>Zuerst war der Ball hier beim roten Pfeil, bitte klicken Sie darauf.</t>
+  </si>
+  <si>
+    <t>Dann war er hier. Also klicken Sie auf den Punkt beim rotem Pfeil.</t>
+  </si>
+  <si>
+    <t>Nun versuchen Sie selbst ohne Hilfe.</t>
+  </si>
+  <si>
+    <t>Sie haben {{num_correct}} von {{num_question}} Ballfolgen richtig beantwortet.</t>
+  </si>
+  <si>
+    <t>Ihr Testergebnis</t>
+  </si>
+  <si>
+    <t>Jill siempre tendrá la bolita en su mano derecha **desde tu punto de vista**, pero jack puede tener la bolita en su mano izquierda o derecha.\\ Aquí la tiene en la mano izquierda, distinta de la de Jill. Haz clic en “distinta” abajo y recuerda también el circulito que la bolita cubre.</t>
   </si>
 </sst>
 </file>
@@ -1517,18 +1730,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="81.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1536,16 +1749,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1553,16 +1772,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1570,16 +1795,22 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1587,16 +1818,22 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1604,16 +1841,22 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1621,16 +1864,22 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1638,16 +1887,22 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1655,16 +1910,22 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1672,16 +1933,22 @@
         <v>33</v>
       </c>
       <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1689,16 +1956,22 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1706,16 +1979,22 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1723,16 +2002,22 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1740,16 +2025,22 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1757,16 +2048,22 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1774,16 +2071,22 @@
         <v>57</v>
       </c>
       <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1791,16 +2094,22 @@
         <v>61</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1808,16 +2117,22 @@
         <v>65</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1825,16 +2140,22 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -1842,16 +2163,22 @@
         <v>73</v>
       </c>
       <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1859,16 +2186,22 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
         <v>78</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1876,16 +2209,22 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G21" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -1893,16 +2232,22 @@
         <v>85</v>
       </c>
       <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G22" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1910,16 +2255,22 @@
         <v>89</v>
       </c>
       <c r="C23" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -1927,16 +2278,22 @@
         <v>93</v>
       </c>
       <c r="C24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" t="s">
         <v>94</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -1944,16 +2301,22 @@
         <v>97</v>
       </c>
       <c r="C25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -1961,16 +2324,22 @@
         <v>101</v>
       </c>
       <c r="C26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -1978,16 +2347,22 @@
         <v>103</v>
       </c>
       <c r="C27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" t="s">
         <v>104</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -1995,16 +2370,22 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" t="s">
         <v>108</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>109</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2012,16 +2393,22 @@
         <v>111</v>
       </c>
       <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2029,16 +2416,22 @@
         <v>115</v>
       </c>
       <c r="C30" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2046,16 +2439,22 @@
         <v>119</v>
       </c>
       <c r="C31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2063,16 +2462,22 @@
         <v>123</v>
       </c>
       <c r="C32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D32" t="s">
         <v>124</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2080,16 +2485,22 @@
         <v>127</v>
       </c>
       <c r="C33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2097,16 +2508,22 @@
         <v>131</v>
       </c>
       <c r="C34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" t="s">
         <v>132</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>133</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="G34" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2114,16 +2531,22 @@
         <v>135</v>
       </c>
       <c r="C35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
         <v>136</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2131,16 +2554,22 @@
         <v>139</v>
       </c>
       <c r="C36" t="s">
+        <v>281</v>
+      </c>
+      <c r="D36" t="s">
         <v>140</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2148,16 +2577,22 @@
         <v>143</v>
       </c>
       <c r="C37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" t="s">
         <v>144</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -2165,16 +2600,22 @@
         <v>147</v>
       </c>
       <c r="C38" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" t="s">
         <v>148</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -2182,16 +2623,22 @@
         <v>151</v>
       </c>
       <c r="C39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" t="s">
         <v>152</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>153</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -2199,16 +2646,22 @@
         <v>131</v>
       </c>
       <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="s">
         <v>155</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -2216,16 +2669,22 @@
         <v>157</v>
       </c>
       <c r="C41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" t="s">
         <v>158</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -2233,16 +2692,22 @@
         <v>161</v>
       </c>
       <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
         <v>162</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -2250,16 +2715,22 @@
         <v>165</v>
       </c>
       <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" t="s">
         <v>166</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -2267,16 +2738,22 @@
         <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>287</v>
       </c>
       <c r="D44" t="s">
         <v>170</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2284,13 +2761,19 @@
         <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>205</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/JAJ_dict.xlsx
+++ b/data-raw/JAJ_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\JAJ\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC4CF05-25B0-42BB-8692-736FAF45B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB169955-B7A6-433A-833F-94F5C722398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="332">
   <si>
     <t>key</t>
   </si>
@@ -887,6 +887,135 @@
   </si>
   <si>
     <t>Jill siempre tendrá la bolita en su mano derecha **desde tu punto de vista**, pero jack puede tener la bolita en su mano izquierda o derecha.\\ Aquí la tiene en la mano izquierda, distinta de la de Jill. Haz clic en “distinta” abajo y recuerda también el circulito que la bolita cubre.</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Esi sveicināts Jāņa un Līgas atmiņas testā!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pēc katras Jāņa pagriešanās reizes tev jāatbild uz jautājumu: "Vai Jānim bumbiņa ir tajā pašā rokā kā Līgai?". Pirms tu atbildi, atceries, kur ir bumbiņa. </t>
+  </si>
+  <si>
+    <t>Turpināt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagad pareizā secībā spied uz tiem oranžiem punktiem, kurus aizklāja bumbiņa, kad Jānis pagriezās. </t>
+  </si>
+  <si>
+    <t>Tu esi pabeidzis Jāņa un Līgas atmiņas testu</t>
+  </si>
+  <si>
+    <t>Jautājums nr {{num_question}} no {{test_length}}</t>
+  </si>
+  <si>
+    <t>Lūdzu, ievadi tikai ciparus bez atstarpēm</t>
+  </si>
+  <si>
+    <t>Paraugs  {{num_example}}</t>
+  </si>
+  <si>
+    <t>Nepareizi ievadīta informācija. Lūdzu, mēģini vēlreiz.</t>
+  </si>
+  <si>
+    <t>Tu pareizi iegaumēji {{prop_correct_hand}}% roku pozīciju un  {{prop_correct_position}}% bumbiņu kustības secību.</t>
+  </si>
+  <si>
+    <t>Tu pareizi iegaumēji, kurā rokā Jānim bija bumbiņa.</t>
+  </si>
+  <si>
+    <t>Tu nepareizi iegaumēji, kurā rokā Jānim bija bumbiņa.</t>
+  </si>
+  <si>
+    <t>Tagad mēs sāksim testu. Testa laikā tev netiks ziņots, vai esi atbildējis pareizi vai nepareizi! Lai veicas!</t>
+  </si>
+  <si>
+    <t>Lūdzu, ievadi savu dalībnieka ID numuru</t>
+  </si>
+  <si>
+    <t>piemēram, 10492817</t>
+  </si>
+  <si>
+    <t>Lūdzu, pārbaudi, vai esi ievadījis pareizu dalībnieka ID numuru</t>
+  </si>
+  <si>
+    <t>Tu pareizi iegaumēji secību, kādā bumbiņa aizklāja oranžos punktus</t>
+  </si>
+  <si>
+    <t>Tu nepareizi iegaumēji secību, kādā bumbiņa aizklāja oranžos punktus</t>
+  </si>
+  <si>
+    <t>Tajā pašā rokā</t>
+  </si>
+  <si>
+    <t>Otrā rokā</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iepazīsties ar Līgu  ekrāna kreisajā pusē un Jāni - labajā pusē. Katram no viņiem vienā rokā ir zila bumbiņa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Līga vienmēr tur bumbiņu labajā rokā **no tava skatpunkta**, bet Jānis var turēt bumbiņu gan labajā, gan kreisajā rokā. \\ Šeit viņš tur bumbiņu kreisajā rokā, bet Līga tur otrā rokā. Spied "Otrā rokā" un iegaumē oranžo punktu, kuru aizklāj bumbiņa. </t>
+  </si>
+  <si>
+    <t>Vai Jānim bumbiņa ir tajā pašā rokā kā Līgai? Iegaumē, kur atrodas bumbiņa, kad Jānis pagriežas.</t>
+  </si>
+  <si>
+    <t>Izmēģināsim!</t>
+  </si>
+  <si>
+    <t>Lūdzu, ievadi savu e-pastu, lai nepieciešamības gadījumā varam sazināties ar tevi</t>
+  </si>
+  <si>
+    <t>Tavs e-pasts</t>
+  </si>
+  <si>
+    <t>Paveikts!</t>
+  </si>
+  <si>
+    <t>Paldies par piedalīšanos!</t>
+  </si>
+  <si>
+    <t>Tagad tu vari aizvērt pārlūkprogrammas logu.</t>
+  </si>
+  <si>
+    <t>Tavi rezultāti ir saglabāti</t>
+  </si>
+  <si>
+    <t>Tagad spied uz to punktu, kuru aizklāja bumbiņa</t>
+  </si>
+  <si>
+    <t>**Apsveicam** Tātad katrā reizē tev ir jānosaka divas lietas: 1) vai Jānim un Līgai bumbiņa atrodas tajā pašā rokā, 2) iegaumē, kurā rokā atrodas bumbiņa, kad Jānis pagriežas</t>
+  </si>
+  <si>
+    <t>Jānim aizmugurē ir 6 oranži punkti. Līga nevar kustēties, savukārt Jānis var pagriezties, kā tu redzi. Tad, kad Jānis pagriežas, viņa bumbiņa aizklāj vienu no punktiem viņam aizmugurē. **Katrā reizē iegaumē, kuru punktu aizklāj bumbiņa**</t>
+  </si>
+  <si>
+    <t>Jānis var pagriezties vairākas reizes vienā spēles kārtā. Tagad Jānim bumbiņa ir tajā pašā rokā kā Līgai. Spied "Tajā pašā rokā". Iegaumē to punktu, kuru aizklāj bumbiņa.</t>
+  </si>
+  <si>
+    <t>Otrajā spēles kārtā Jānim bumbiņa būs otrā rokā. Spied "Otrā rokā". Iegaumē to punktu, kuru aizklāj bumbiņa.</t>
+  </si>
+  <si>
+    <t>Tagad pareizā secībā spied uz tiem diviem oranžiem punktiem, kurus aizklāja bumbiņa, kad Jānis pagriezās. Sākumā bumbiņa atradās te, tātad spied šeit.</t>
+  </si>
+  <si>
+    <t>Tagad bumbiņa atradās te, tātad spied šeit.</t>
+  </si>
+  <si>
+    <t>Tagad izmēģini pats</t>
+  </si>
+  <si>
+    <t>Jāņa un Līgas atmiņas tests.</t>
+  </si>
+  <si>
+    <t>Tu pareizi noteici {{num_correct}} no {{num_question}} bumbiņas atrašanās vietām.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tavi rezultāti </t>
+  </si>
+  <si>
+    <t>Rezultāti</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1870,7 @@
     <col min="6" max="7" width="81.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1763,8 +1892,11 @@
       <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1786,8 +1918,11 @@
       <c r="G2" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +1944,11 @@
       <c r="G3" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1832,8 +1970,11 @@
       <c r="G4" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1855,8 +1996,11 @@
       <c r="G5" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1878,8 +2022,11 @@
       <c r="G6" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1901,8 +2048,11 @@
       <c r="G7" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1924,8 +2074,11 @@
       <c r="G8" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2100,11 @@
       <c r="G9" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1970,8 +2126,11 @@
       <c r="G10" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -1993,8 +2152,11 @@
       <c r="G11" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2016,8 +2178,11 @@
       <c r="G12" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2039,8 +2204,11 @@
       <c r="G13" s="1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2062,8 +2230,11 @@
       <c r="G14" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2085,8 +2256,11 @@
       <c r="G15" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2108,8 +2282,11 @@
       <c r="G16" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2131,8 +2308,11 @@
       <c r="G17" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2154,8 +2334,11 @@
       <c r="G18" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2177,8 +2360,11 @@
       <c r="G19" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2200,8 +2386,11 @@
       <c r="G20" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2223,8 +2412,11 @@
       <c r="G21" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -2246,8 +2438,11 @@
       <c r="G22" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2269,8 +2464,11 @@
       <c r="G23" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2292,8 +2490,11 @@
       <c r="G24" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2315,8 +2516,11 @@
       <c r="G25" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2338,8 +2542,11 @@
       <c r="G26" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2361,8 +2568,11 @@
       <c r="G27" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2384,8 +2594,11 @@
       <c r="G28" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2407,8 +2620,11 @@
       <c r="G29" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2430,8 +2646,11 @@
       <c r="G30" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2453,8 +2672,11 @@
       <c r="G31" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2476,8 +2698,11 @@
       <c r="G32" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2499,8 +2724,11 @@
       <c r="G33" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2522,8 +2750,11 @@
       <c r="G34" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2545,8 +2776,11 @@
       <c r="G35" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2568,8 +2802,11 @@
       <c r="G36" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2591,8 +2828,11 @@
       <c r="G37" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -2614,8 +2854,11 @@
       <c r="G38" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -2637,8 +2880,11 @@
       <c r="G39" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -2660,8 +2906,11 @@
       <c r="G40" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -2683,8 +2932,11 @@
       <c r="G41" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -2706,8 +2958,11 @@
       <c r="G42" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -2729,8 +2984,11 @@
       <c r="G43" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -2752,8 +3010,11 @@
       <c r="G44" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2774,6 +3035,9 @@
       </c>
       <c r="G45" s="1" t="s">
         <v>260</v>
+      </c>
+      <c r="H45" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/JAJ_dict.xlsx
+++ b/data-raw/JAJ_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\JAJ\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB169955-B7A6-433A-833F-94F5C722398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478D050-9699-4B61-92B1-943651D27D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="376">
   <si>
     <t>key</t>
   </si>
@@ -1016,6 +1016,138 @@
   </si>
   <si>
     <t>Rezultāti</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>Dobrodošli na Jack in Jill preizkusu spomina.</t>
+  </si>
+  <si>
+    <t>Jack se obrne vsakič, ko odgovorite na naslednje vprašanje: "Ali Jack drži žogo v isti roki kot Jill?". Preden odgovorite, si zapomnite, kje je žoga.</t>
+  </si>
+  <si>
+    <t>Naprej</t>
+  </si>
+  <si>
+    <t>Kliknite oranžne točke, kjer se je žoga premikala, v enakem vrstnem redu, kot se je obračal Jack.</t>
+  </si>
+  <si>
+    <t>Zaključili ste Jack in Jill preizkus spomina.</t>
+  </si>
+  <si>
+    <t>Vprašanje {{num_question}} od {{test_length}}</t>
+  </si>
+  <si>
+    <t>Vnesite samo številke brez praznih mest</t>
+  </si>
+  <si>
+    <t>Primer {{num_example}}</t>
+  </si>
+  <si>
+    <t>Vaš vnos je bil neveljaven. Poskusite znova.</t>
+  </si>
+  <si>
+    <t>Pravilno ste si zapomnili {{prop_correct_hand}}% rok in {{prop_correct_position}}% zaporedij.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imeli ste prav, v kateri roki je imel Jack žogo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niste imeli prav, v kateri roki je imel Jack žogo. </t>
+  </si>
+  <si>
+    <t>Zdaj začnemo z glavnim preizkusom, pri katerem ne boste prejeli nobenih povratnih informacij. Uživajte!</t>
+  </si>
+  <si>
+    <t>Prosimo, vnesite svojo kodo udeleženca/ke</t>
+  </si>
+  <si>
+    <t>npr. 10492817</t>
+  </si>
+  <si>
+    <t>Prosimo, vnesite veljavno kodo udeleženca/ke</t>
+  </si>
+  <si>
+    <t>Imeli ste prav glede vrstnega reda, v katerem se je žoga premikala.</t>
+  </si>
+  <si>
+    <t>Niste imeli prav glede vrstnega reda, v katerem se je žoga premikala.</t>
+  </si>
+  <si>
+    <t>Ista roka</t>
+  </si>
+  <si>
+    <t>Druga roka</t>
+  </si>
+  <si>
+    <t>Spoznajte Jill na levi in Jacka na desni strani zaslona. Vsak od njiju ima v eni roki modro žogo.</t>
+  </si>
+  <si>
+    <t>Jill žogo vedno drži v desni roki **z vašega zornega kota**, Jack pa jo lahko drži v levi ali desni roki.\\ Tukaj jo ima v levi, drugače kot Jill. Spodaj kliknite "Druga roka" in si zapomnite točko, ki jo pokriva žoga.</t>
+  </si>
+  <si>
+    <t>Ali Jack drži žogo v isti roki kot Jill? Zapomnite si, kje je žoga, ko se Jack obrne.</t>
+  </si>
+  <si>
+    <t>Izvedimo nekaj vaj!</t>
+  </si>
+  <si>
+    <t>Kliknite oranžne točke, na katere se je žoga premaknila, v enakem vrstnem redu, kot se je obračal Jack.</t>
+  </si>
+  <si>
+    <t>Za nadomestilo za **Slicethepie** spodaj vnesite vaš e-poštni naslov.</t>
+  </si>
+  <si>
+    <t>Vaš e-poštni naslov</t>
+  </si>
+  <si>
+    <t>Zaključeno</t>
+  </si>
+  <si>
+    <t>Hvala za sodelovanje!</t>
+  </si>
+  <si>
+    <t>Zdaj lahko zaprete zavihek brskalnika.</t>
+  </si>
+  <si>
+    <t>Vaši rezultati so shranjeni.</t>
+  </si>
+  <si>
+    <t>Zdaj kliknite to mesto, ki ga je pokrivala žoga.</t>
+  </si>
+  <si>
+    <t>**Čestitamo**!\\Tako opravite krog: 1) povejte, ali imata Jack in Jill žogo v isti roki, 2) zapomnite si, kam gre žoga vsakič, ko se Jack obrne.</t>
+  </si>
+  <si>
+    <t>Za Jackom je 6 različnih oranžnih točk. Jill se ne more premikati, Jack pa se lahko obrača, kot si lahko ogledate tukaj. Ko se Jack obrne, bo njegova žoga pokrila eno od točk za njim. **Vsak krog si zapomnite, katera mesta pokriva žoga.**</t>
+  </si>
+  <si>
+    <t>Jack se lahko v enem krogu obrne tudi večkrat. Zdaj ima Jack žogo v isti roki kot Jill. Kliknite "Ista roka". Zapomnite si mesto, ki ga pokriva žoga.</t>
+  </si>
+  <si>
+    <t>Pri drugem obratu ima Jack žogo v drugi roki. Kliknite "Druga roka". Zapomnite si mesto, ki ga pokriva žoga.</t>
+  </si>
+  <si>
+    <t>Zdaj kliknite na dve točki v enakem vrstnem redu, kot se je žoga premikala, ko se je Jack obrnil. Najprej je bila žoga tukaj, zato kliknite tukaj.</t>
+  </si>
+  <si>
+    <t>Nato je bila tukaj, zato zdaj kliknite tukaj.</t>
+  </si>
+  <si>
+    <t>Zdaj pa poskusite sami brez pomoči.</t>
+  </si>
+  <si>
+    <t>Jack in Jill preizkus spomina</t>
+  </si>
+  <si>
+    <t>Pravilno ste odgovorili na {{num_correct}} od {{num_question}} zaporedij položajev.</t>
+  </si>
+  <si>
+    <t>Vaš rezultat</t>
+  </si>
+  <si>
+    <t>Rezultat</t>
   </si>
 </sst>
 </file>
@@ -1859,18 +1991,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H45"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="7" width="81.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1895,8 +2028,11 @@
       <c r="H1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1921,8 +2057,11 @@
       <c r="H2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1947,8 +2086,11 @@
       <c r="H3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1973,8 +2115,11 @@
       <c r="H4" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1999,8 +2144,11 @@
       <c r="H5" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2025,8 +2173,11 @@
       <c r="H6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2051,8 +2202,11 @@
       <c r="H7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2077,8 +2231,11 @@
       <c r="H8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2103,8 +2260,11 @@
       <c r="H9" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2129,8 +2289,11 @@
       <c r="H10" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2155,8 +2318,11 @@
       <c r="H11" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2181,8 +2347,11 @@
       <c r="H12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2376,11 @@
       <c r="H13" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2233,8 +2405,11 @@
       <c r="H14" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2259,8 +2434,11 @@
       <c r="H15" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2285,8 +2463,11 @@
       <c r="H16" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2311,8 +2492,11 @@
       <c r="H17" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2337,8 +2521,11 @@
       <c r="H18" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2363,8 +2550,11 @@
       <c r="H19" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2389,8 +2579,11 @@
       <c r="H20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2415,8 +2608,11 @@
       <c r="H21" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -2441,8 +2637,11 @@
       <c r="H22" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2467,8 +2666,11 @@
       <c r="H23" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2493,8 +2695,11 @@
       <c r="H24" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2519,8 +2724,11 @@
       <c r="H25" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2545,8 +2753,11 @@
       <c r="H26" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2571,8 +2782,11 @@
       <c r="H27" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2597,8 +2811,11 @@
       <c r="H28" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2623,8 +2840,11 @@
       <c r="H29" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2649,8 +2869,11 @@
       <c r="H30" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2675,8 +2898,11 @@
       <c r="H31" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2701,8 +2927,11 @@
       <c r="H32" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2727,8 +2956,11 @@
       <c r="H33" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2753,8 +2985,11 @@
       <c r="H34" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2779,8 +3014,11 @@
       <c r="H35" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2805,8 +3043,11 @@
       <c r="H36" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -2831,8 +3072,11 @@
       <c r="H37" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -2857,8 +3101,11 @@
       <c r="H38" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -2883,8 +3130,11 @@
       <c r="H39" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -2909,8 +3159,11 @@
       <c r="H40" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -2935,8 +3188,11 @@
       <c r="H41" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -2961,8 +3217,11 @@
       <c r="H42" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -2987,8 +3246,11 @@
       <c r="H43" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -3013,8 +3275,11 @@
       <c r="H44" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -3038,6 +3303,9 @@
       </c>
       <c r="H45" t="s">
         <v>331</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/JAJ_dict.xlsx
+++ b/data-raw/JAJ_dict.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\JAJ\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8478D050-9699-4B61-92B1-943651D27D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B23A6B-D15D-48BB-AEED-4D3BF265A817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAJ_dict" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -892,21 +892,12 @@
     <t>LV</t>
   </si>
   <si>
-    <t>Esi sveicināts Jāņa un Līgas atmiņas testā!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pēc katras Jāņa pagriešanās reizes tev jāatbild uz jautājumu: "Vai Jānim bumbiņa ir tajā pašā rokā kā Līgai?". Pirms tu atbildi, atceries, kur ir bumbiņa. </t>
-  </si>
-  <si>
     <t>Turpināt</t>
   </si>
   <si>
     <t xml:space="preserve">Tagad pareizā secībā spied uz tiem oranžiem punktiem, kurus aizklāja bumbiņa, kad Jānis pagriezās. </t>
   </si>
   <si>
-    <t>Tu esi pabeidzis Jāņa un Līgas atmiņas testu</t>
-  </si>
-  <si>
     <t>Jautājums nr {{num_question}} no {{test_length}}</t>
   </si>
   <si>
@@ -916,9 +907,6 @@
     <t>Paraugs  {{num_example}}</t>
   </si>
   <si>
-    <t>Nepareizi ievadīta informācija. Lūdzu, mēģini vēlreiz.</t>
-  </si>
-  <si>
     <t>Tu pareizi iegaumēji {{prop_correct_hand}}% roku pozīciju un  {{prop_correct_position}}% bumbiņu kustības secību.</t>
   </si>
   <si>
@@ -985,9 +973,6 @@
     <t>Tagad spied uz to punktu, kuru aizklāja bumbiņa</t>
   </si>
   <si>
-    <t>**Apsveicam** Tātad katrā reizē tev ir jānosaka divas lietas: 1) vai Jānim un Līgai bumbiņa atrodas tajā pašā rokā, 2) iegaumē, kurā rokā atrodas bumbiņa, kad Jānis pagriežas</t>
-  </si>
-  <si>
     <t>Jānim aizmugurē ir 6 oranži punkti. Līga nevar kustēties, savukārt Jānis var pagriezties, kā tu redzi. Tad, kad Jānis pagriežas, viņa bumbiņa aizklāj vienu no punktiem viņam aizmugurē. **Katrā reizē iegaumē, kuru punktu aizklāj bumbiņa**</t>
   </si>
   <si>
@@ -1006,9 +991,6 @@
     <t>Tagad izmēģini pats</t>
   </si>
   <si>
-    <t>Jāņa un Līgas atmiņas tests.</t>
-  </si>
-  <si>
     <t>Tu pareizi noteici {{num_correct}} no {{num_question}} bumbiņas atrašanās vietām.</t>
   </si>
   <si>
@@ -1148,13 +1130,47 @@
   </si>
   <si>
     <t>Rezultat</t>
+  </si>
+  <si>
+    <t>Esi sveicināts Atmiņas testā!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pēc katras Jāņa pagriešanās reizes tev jāatbild uz jautājumu: "Vai Jānim bumbiņa ir tajā pašā rokā kā Līgai?". Pirms tu atbildi, mēģini atcerēties, kur ir bumbiņa. </t>
+  </si>
+  <si>
+    <t>Tu esi pabeidzis Atmiņas testu!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">Nepareizi ievadīta informācija. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lūdzu, mēģini vēlreiz.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tātad katrā reizē tev ir jānosaka divas lietas: 1) vai Jānim un Līgai bumbiņa atrodas tajā pašā rokā, 2) kurā rokā atrodas bumbiņa, kad Jānis pagriežas</t>
+  </si>
+  <si>
+    <t>Atmiņas tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1288,6 +1304,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1631,10 +1667,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1993,17 +2047,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="7" width="81.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2025,14 +2079,14 @@
       <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>289</v>
       </c>
       <c r="I1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2054,14 +2108,14 @@
       <c r="G2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H2" t="s">
-        <v>290</v>
+      <c r="H2" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="I2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2083,14 +2137,14 @@
       <c r="G3" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H3" t="s">
-        <v>291</v>
+      <c r="H3" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="I3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2112,14 +2166,14 @@
       <c r="G4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H4" t="s">
-        <v>292</v>
+      <c r="H4" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="I4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2141,14 +2195,14 @@
       <c r="G5" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H5" t="s">
-        <v>293</v>
+      <c r="H5" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="I5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2170,14 +2224,14 @@
       <c r="G6" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H6" t="s">
-        <v>294</v>
+      <c r="H6" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="I6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2199,14 +2253,14 @@
       <c r="G7" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H7" t="s">
-        <v>295</v>
+      <c r="H7" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="I7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -2228,14 +2282,14 @@
       <c r="G8" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H8" t="s">
-        <v>296</v>
+      <c r="H8" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="I8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2257,14 +2311,14 @@
       <c r="G9" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H9" t="s">
-        <v>297</v>
+      <c r="H9" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="I9" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2286,14 +2340,14 @@
       <c r="G10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="H10" t="s">
-        <v>298</v>
+      <c r="H10" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="I10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2315,14 +2369,14 @@
       <c r="G11" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H11" t="s">
-        <v>299</v>
+      <c r="H11" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -2344,14 +2398,14 @@
       <c r="G12" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H12" t="s">
-        <v>300</v>
+      <c r="H12" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2373,14 +2427,14 @@
       <c r="G13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H13" t="s">
-        <v>301</v>
+      <c r="H13" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2402,14 +2456,14 @@
       <c r="G14" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H14" t="s">
-        <v>302</v>
+      <c r="H14" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2431,14 +2485,14 @@
       <c r="G15" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H15" t="s">
-        <v>303</v>
+      <c r="H15" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="I15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -2460,14 +2514,14 @@
       <c r="G16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H16" t="s">
-        <v>304</v>
+      <c r="H16" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="29.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2489,14 +2543,14 @@
       <c r="G17" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H17" t="s">
-        <v>305</v>
+      <c r="H17" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="I17" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2518,14 +2572,14 @@
       <c r="G18" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="H18" t="s">
-        <v>306</v>
+      <c r="H18" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="I18" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29.25">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -2547,14 +2601,14 @@
       <c r="G19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H19" t="s">
-        <v>307</v>
+      <c r="H19" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="I19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2576,14 +2630,14 @@
       <c r="G20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H20" t="s">
-        <v>308</v>
+      <c r="H20" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2605,14 +2659,14 @@
       <c r="G21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H21" t="s">
-        <v>309</v>
+      <c r="H21" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -2634,14 +2688,14 @@
       <c r="G22" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H22" t="s">
-        <v>310</v>
+      <c r="H22" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="72">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2663,14 +2717,14 @@
       <c r="G23" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="H23" t="s">
-        <v>311</v>
+      <c r="H23" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="I23" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -2692,14 +2746,14 @@
       <c r="G24" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H24" t="s">
-        <v>312</v>
+      <c r="H24" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="I24" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -2721,14 +2775,14 @@
       <c r="G25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="H25" t="s">
-        <v>313</v>
+      <c r="H25" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="I25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -2750,14 +2804,14 @@
       <c r="G26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H26" t="s">
-        <v>293</v>
+      <c r="H26" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="I26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -2779,14 +2833,14 @@
       <c r="G27" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H27" t="s">
-        <v>314</v>
+      <c r="H27" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="I27" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -2808,14 +2862,14 @@
       <c r="G28" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H28" t="s">
-        <v>315</v>
+      <c r="H28" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="I28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2837,14 +2891,14 @@
       <c r="G29" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H29" t="s">
-        <v>316</v>
+      <c r="H29" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="I29" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2866,14 +2920,14 @@
       <c r="G30" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H30" t="s">
-        <v>317</v>
+      <c r="H30" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2895,14 +2949,14 @@
       <c r="G31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H31" t="s">
-        <v>318</v>
+      <c r="H31" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="I31" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2924,14 +2978,14 @@
       <c r="G32" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H32" t="s">
-        <v>319</v>
+      <c r="H32" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="I32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2953,14 +3007,14 @@
       <c r="G33" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="H33" t="s">
-        <v>320</v>
+      <c r="H33" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" t="s">
         <v>130</v>
       </c>
@@ -2982,14 +3036,14 @@
       <c r="G34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H34" t="s">
-        <v>321</v>
+      <c r="H34" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="I34" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -3011,14 +3065,14 @@
       <c r="G35" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H35" t="s">
-        <v>322</v>
+      <c r="H35" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="I35" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -3040,14 +3094,14 @@
       <c r="G36" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="H36" t="s">
-        <v>323</v>
+      <c r="H36" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="I36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -3069,14 +3123,14 @@
       <c r="G37" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H37" t="s">
-        <v>324</v>
+      <c r="H37" s="3" t="s">
+        <v>319</v>
       </c>
       <c r="I37" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -3098,14 +3152,14 @@
       <c r="G38" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H38" t="s">
-        <v>325</v>
+      <c r="H38" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="I38" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>150</v>
       </c>
@@ -3127,14 +3181,14 @@
       <c r="G39" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H39" t="s">
-        <v>326</v>
+      <c r="H39" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="I39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -3156,14 +3210,14 @@
       <c r="G40" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H40" t="s">
-        <v>321</v>
+      <c r="H40" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="I40" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -3185,14 +3239,14 @@
       <c r="G41" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H41" t="s">
-        <v>327</v>
+      <c r="H41" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -3214,14 +3268,14 @@
       <c r="G42" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="H42" t="s">
-        <v>328</v>
+      <c r="H42" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="I42" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -3243,14 +3297,14 @@
       <c r="G43" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H43" t="s">
-        <v>329</v>
+      <c r="H43" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -3272,14 +3326,14 @@
       <c r="G44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H44" t="s">
-        <v>330</v>
+      <c r="H44" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="I44" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -3301,11 +3355,11 @@
       <c r="G45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H45" t="s">
-        <v>331</v>
+      <c r="H45" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="I45" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
